--- a/Excel and Report/TaskTracker.xlsx
+++ b/Excel and Report/TaskTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drksu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D477443F-DCC1-4EC8-806D-EE3A906E24D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5DF47D-195B-4FDE-9E3D-B34F67789B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="336" windowWidth="21156" windowHeight="12024" activeTab="2" xr2:uid="{311DAACD-442E-4DFA-89C9-C340F3EBAD53}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Sr No.</t>
   </si>
@@ -137,6 +137,30 @@
     <t>Kevin</t>
   </si>
   <si>
+    <t>Robert Downey</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Admin Access</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>UA60105</t>
+  </si>
+  <si>
     <t>T1</t>
   </si>
   <si>
@@ -146,7 +170,7 @@
     <t>Description 1</t>
   </si>
   <si>
-    <t>Bug</t>
+    <t>Feature</t>
   </si>
   <si>
     <t>COMPLETED</t>
@@ -155,89 +179,41 @@
     <t>MEDIUM</t>
   </si>
   <si>
-    <t>19/10/2020</t>
-  </si>
-  <si>
-    <t>Title 2</t>
-  </si>
-  <si>
-    <t>Description 2</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>Robert Downey</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Ttile 3</t>
-  </si>
-  <si>
-    <t>desc 3</t>
-  </si>
-  <si>
-    <t>Daily Task</t>
-  </si>
-  <si>
-    <t>17/10/2020</t>
-  </si>
-  <si>
-    <t>Admin Access</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>T567</t>
-  </si>
-  <si>
-    <t>Title xyz</t>
-  </si>
-  <si>
-    <t>Desc xyz</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>20/10/2020</t>
-  </si>
-  <si>
-    <t>25/10/2020</t>
-  </si>
-  <si>
-    <t>in progress</t>
-  </si>
-  <si>
-    <t>Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>Scarlett</t>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
+    <t>Emma Watson</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Rupert Grint</t>
+  </si>
+  <si>
+    <t>Rupert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Marlett"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,9 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA0332-1ADE-4F29-A1E9-41684F8D32A6}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD3"/>
+      <selection activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,6 +568,7 @@
     <col min="1" max="1" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -606,113 +587,25 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2">
+        <v>806782</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -723,16 +616,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829538E-9FF5-4319-AA73-C7B9D0944955}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -754,10 +648,10 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -811,166 +705,43 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>806782</v>
       </c>
       <c r="I2">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -981,20 +752,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49299AB-98BE-43DA-B576-A6561B2CFC0B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +779,7 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1016,16 +787,16 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+        <v>806782</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,11 +809,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,11 +826,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,16 +843,16 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1089,16 +860,16 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1106,11 +877,45 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>65</v>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel and Report/TaskTracker.xlsx
+++ b/Excel and Report/TaskTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drksu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drksu\source\repos\TaskTracker\Excel and Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5DF47D-195B-4FDE-9E3D-B34F67789B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74BD070-B1AE-4BA1-994C-12AF1F80705A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="336" windowWidth="21156" windowHeight="12024" activeTab="2" xr2:uid="{311DAACD-442E-4DFA-89C9-C340F3EBAD53}"/>
+    <workbookView xWindow="1884" yWindow="336" windowWidth="21156" windowHeight="12024" xr2:uid="{311DAACD-442E-4DFA-89C9-C340F3EBAD53}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Tracker" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>Sr No.</t>
   </si>
@@ -83,24 +83,6 @@
     <t>Actual End Date</t>
   </si>
   <si>
-    <t>Hours Remaining</t>
-  </si>
-  <si>
-    <t>Extra Hours</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
-    <t>Estimate</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
     <t>Employee Name</t>
   </si>
   <si>
@@ -195,6 +177,90 @@
   </si>
   <si>
     <t>Rupert</t>
+  </si>
+  <si>
+    <t>21/01/2020</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Daily Task</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>24/10/2020</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>23-10-2020</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>T98</t>
+  </si>
+  <si>
+    <t>title98</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>25/10/2020</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>title8</t>
+  </si>
+  <si>
+    <t>desc8</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>T77</t>
+  </si>
+  <si>
+    <t>title77</t>
   </si>
 </sst>
 </file>
@@ -557,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA0332-1ADE-4F29-A1E9-41684F8D32A6}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +662,7 @@
         <v>806782</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -605,7 +671,41 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>806782</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>806782</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -616,10 +716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829538E-9FF5-4319-AA73-C7B9D0944955}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +741,7 @@
     <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -681,49 +781,28 @@
       <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>806782</v>
@@ -732,16 +811,262 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>806782</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>806782</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>806782</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>806782</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <v>806782</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>806782</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -754,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49299AB-98BE-43DA-B576-A6561B2CFC0B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -767,41 +1092,41 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>806782</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -810,15 +1135,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -827,15 +1152,15 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -844,15 +1169,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -861,15 +1186,15 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -878,15 +1203,15 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -895,15 +1220,15 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -912,10 +1237,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
